--- a/nr-test-log-model/ig/StructureDefinition-log-personne-prise-charge.xlsx
+++ b/nr-test-log-model/ig/StructureDefinition-log-personne-prise-charge.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:37:42+00:00</t>
+    <t>2024-05-28T08:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-log-model/ig/StructureDefinition-log-personne-prise-charge.xlsx
+++ b/nr-test-log-model/ig/StructureDefinition-log-personne-prise-charge.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:38:45+00:00</t>
+    <t>2024-05-28T09:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-log-model/ig/StructureDefinition-log-personne-prise-charge.xlsx
+++ b/nr-test-log-model/ig/StructureDefinition-log-personne-prise-charge.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T09:47:08+00:00</t>
+    <t>2024-05-28T09:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
